--- a/controller/imagen.xlsx
+++ b/controller/imagen.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Members" sheetId="1" r:id="rId4"/>
+    <sheet name="imagenes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -67,14 +67,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="0" cy="1428750"/>
+    <xdr:ext cx="419100" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="1" name="test_img" descr="test_img"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -401,104 +401,104 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>22</v>
-      </c>
       <c r="E1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -506,16 +506,16 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/controller/imagen.xlsx
+++ b/controller/imagen.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="imagenes" sheetId="1" r:id="rId4"/>
+    <sheet name="informacion" sheetId="1" r:id="rId4"/>
+    <sheet name="Imagenes" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -62,7 +63,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -71,7 +72,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="419100" cy="333375"/>
+    <xdr:ext cx="4762500" cy="3810000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="test_img" descr="test_img"/>
@@ -389,7 +390,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -401,50 +402,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -452,71 +453,103 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
       <c r="C4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/controller/imagen.xlsx
+++ b/controller/imagen.xlsx
@@ -402,101 +402,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <v>19</v>
       </c>
       <c r="D1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/controller/imagen.xlsx
+++ b/controller/imagen.xlsx
@@ -16,7 +16,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Cauca-El Tambo</t>
+  </si>
+  <si>
+    <t>Popayan POpayan Popayan POpayan</t>
+  </si>
+  <si>
+    <t>asdfasdf asdfas asdfasdf asdfsdfa</t>
+  </si>
+  <si>
+    <t>asfdadsf asdf afd asdfasdf</t>
+  </si>
+  <si>
+    <t>12313 123123 12312 31231231</t>
+  </si>
+  <si>
+    <t>1 1 1 1</t>
+  </si>
+  <si>
+    <t>j ioj o ijoijoi</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,127 +433,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="39.990234" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>26</v>
-      </c>
-      <c r="C1">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
